--- a/SuggestedLists/eSituation.17 - Patient Activity.xlsx
+++ b/SuggestedLists/eSituation.17 - Patient Activity.xlsx
@@ -7,19 +7,17 @@
     <workbookView xWindow="480" yWindow="75" windowWidth="18195" windowHeight="11820"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="Activity by Code" sheetId="4" r:id="rId1"/>
+    <sheet name="Activity by Example EMS Descr" sheetId="1" r:id="rId2"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId3"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId4"/>
   </sheets>
   <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="89">
-  <si>
-    <t>TTY</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="344" uniqueCount="131">
   <si>
     <t>ICD-10-CM Code</t>
   </si>
@@ -282,7 +280,137 @@
     <t>Activities involving animal care</t>
   </si>
   <si>
-    <t>Patient Activity (eSituation.17) Description</t>
+    <t>ICD-10-CM Description</t>
+  </si>
+  <si>
+    <t>NEMSIS Version 3 - Patient Activity
+Example EMS Descriptor</t>
+  </si>
+  <si>
+    <t>Walking or running</t>
+  </si>
+  <si>
+    <t>Water or water craft activities</t>
+  </si>
+  <si>
+    <t>Ice or snow activities</t>
+  </si>
+  <si>
+    <t>Ice hockey</t>
+  </si>
+  <si>
+    <t>Snow (alpine) (downhill) skiing, snow boarding, sledding, tobogganing and snow tubing</t>
+  </si>
+  <si>
+    <t>Climbing, rappelling and jumping off</t>
+  </si>
+  <si>
+    <t>Dancing and other rhythmic movement</t>
+  </si>
+  <si>
+    <t>Other sports and athletics played individually</t>
+  </si>
+  <si>
+    <t>Roller skating (inline) and skateboarding</t>
+  </si>
+  <si>
+    <t>Horseback riding</t>
+  </si>
+  <si>
+    <t>Golf</t>
+  </si>
+  <si>
+    <t>Bowling</t>
+  </si>
+  <si>
+    <t>Bike riding</t>
+  </si>
+  <si>
+    <t>Track and field events, non-running</t>
+  </si>
+  <si>
+    <t>Other sports and athletics played as a team or group</t>
+  </si>
+  <si>
+    <t>Football, american tackle</t>
+  </si>
+  <si>
+    <t>Football, american flag or touch</t>
+  </si>
+  <si>
+    <t>Rugby</t>
+  </si>
+  <si>
+    <t>Lacrosse and field hockey</t>
+  </si>
+  <si>
+    <t>Soccer</t>
+  </si>
+  <si>
+    <t>Basketball</t>
+  </si>
+  <si>
+    <t>Volleyball (beach) (court)</t>
+  </si>
+  <si>
+    <t>Physical games generally associated with school recess, summer camp and children</t>
+  </si>
+  <si>
+    <t>Other specified sports and athletics</t>
+  </si>
+  <si>
+    <t>Spectator at an event</t>
+  </si>
+  <si>
+    <t>Sleeping</t>
+  </si>
+  <si>
+    <t>Other cardiorespiratory exercise</t>
+  </si>
+  <si>
+    <t>Other muscle strengthening exercises</t>
+  </si>
+  <si>
+    <t>Computer technology and electronic devices activity</t>
+  </si>
+  <si>
+    <t>Other specified activity</t>
+  </si>
+  <si>
+    <t>Hand held interactive electronic device activity</t>
+  </si>
+  <si>
+    <t>Arts and handcrafts activity</t>
+  </si>
+  <si>
+    <t>Personal hygiene and interior property and clothing maintenance activity</t>
+  </si>
+  <si>
+    <t>Caregiving activity</t>
+  </si>
+  <si>
+    <t>Food preparation, cooking and grilling activity</t>
+  </si>
+  <si>
+    <t>Exterior property and land maintenance, building and construction activity</t>
+  </si>
+  <si>
+    <t>Roller coasters and other types of external motion activity</t>
+  </si>
+  <si>
+    <t>Playing musical instrument</t>
+  </si>
+  <si>
+    <t>Animal care activity</t>
+  </si>
+  <si>
+    <t>Baseball or Softball</t>
+  </si>
+  <si>
+    <t>TTY Code</t>
+  </si>
+  <si>
+    <t>Jumping rope</t>
   </si>
 </sst>
 </file>
@@ -306,12 +434,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="2">
@@ -341,11 +475,25 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -647,614 +795,745 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D43"/>
+  <dimension ref="A1:E43"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="15.5703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="88.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="6.85546875" customWidth="1"/>
+    <col min="3" max="3" width="10.28515625" customWidth="1"/>
+    <col min="4" max="5" width="50.7109375" style="5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="2"/>
-      <c r="B1" s="1" t="s">
+    <row r="1" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A1" s="1"/>
+      <c r="B1" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="C1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="E1" s="6" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="2">
-        <v>1</v>
-      </c>
-      <c r="B2" s="2" t="s">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" s="1">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="D2" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="E2" s="7" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="1">
+        <v>2</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" s="2" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="2">
-        <v>2</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="C3" s="3" t="s">
+      <c r="D3" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="D3" s="3" t="s">
+      <c r="E3" s="7" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="1">
+        <v>3</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C4" s="2" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="2">
-        <v>3</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="C4" s="3" t="s">
+      <c r="D4" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="D4" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="2">
+      <c r="E4" s="7" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" s="1">
         <v>4</v>
       </c>
-      <c r="B5" s="2" t="s">
+      <c r="B5" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C5" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C5" s="3" t="s">
+      <c r="D5" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="D5" s="3" t="s">
+      <c r="E5" s="7" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A6" s="1">
+        <v>5</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C6" s="2" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="2">
-        <v>5</v>
-      </c>
-      <c r="B6" s="2" t="s">
+      <c r="D6" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E6" s="7" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A7" s="1">
+        <v>6</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="E7" s="7" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A8" s="1">
+        <v>7</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="E8" s="7" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A9" s="1">
+        <v>8</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="E9" s="7" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" s="1">
         <v>9</v>
       </c>
-      <c r="C6" s="3" t="s">
+      <c r="B10" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="E10" s="7" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" s="1">
+        <v>10</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D11" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="E11" s="7" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12" s="1">
+        <v>11</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D12" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="E12" s="7" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13" s="1">
         <v>12</v>
       </c>
-      <c r="D6" s="3" t="s">
+      <c r="B13" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D13" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="E13" s="7" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14" s="1">
         <v>13</v>
       </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" s="2">
-        <v>6</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="C7" s="3" t="s">
+      <c r="B14" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D14" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="E14" s="7" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A15" s="1">
         <v>14</v>
       </c>
-      <c r="D7" s="3" t="s">
+      <c r="B15" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="D15" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="E15" s="7" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A16" s="1">
         <v>15</v>
       </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" s="2">
-        <v>7</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="C8" s="3" t="s">
+      <c r="B16" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="D16" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="E16" s="7" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A17" s="1">
         <v>16</v>
       </c>
-      <c r="D8" s="3" t="s">
+      <c r="B17" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="D17" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="E17" s="7" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A18" s="1">
         <v>17</v>
       </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" s="2">
-        <v>8</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="C9" s="3" t="s">
+      <c r="B18" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="D18" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="E18" s="7" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A19" s="1">
         <v>18</v>
       </c>
-      <c r="D9" s="3" t="s">
+      <c r="B19" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="D19" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="E19" s="7" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A20" s="1">
         <v>19</v>
       </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" s="2">
-        <v>9</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C10" s="3" t="s">
+      <c r="B20" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="D20" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="E20" s="7" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A21" s="1">
         <v>20</v>
       </c>
-      <c r="D10" s="3" t="s">
+      <c r="B21" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="D21" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="E21" s="7" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A22" s="1">
         <v>21</v>
       </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" s="2">
-        <v>10</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C11" s="3" t="s">
+      <c r="B22" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="D22" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="E22" s="7" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A23" s="1">
         <v>22</v>
       </c>
-      <c r="D11" s="3" t="s">
+      <c r="B23" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="D23" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="E23" s="7" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A24" s="1">
         <v>23</v>
       </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12" s="2">
-        <v>11</v>
-      </c>
-      <c r="B12" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C12" s="3" t="s">
+      <c r="B24" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="D24" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="E24" s="7" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A25" s="1">
         <v>24</v>
       </c>
-      <c r="D12" s="3" t="s">
+      <c r="B25" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="D25" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="E25" s="7" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A26" s="1">
         <v>25</v>
       </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A13" s="2">
-        <v>12</v>
-      </c>
-      <c r="B13" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C13" s="3" t="s">
+      <c r="B26" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="D26" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="E26" s="7" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A27" s="1">
         <v>26</v>
       </c>
-      <c r="D13" s="3" t="s">
+      <c r="B27" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C27" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="D27" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="E27" s="7" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A28" s="1">
         <v>27</v>
       </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A14" s="2">
-        <v>13</v>
-      </c>
-      <c r="B14" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C14" s="3" t="s">
+      <c r="B28" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C28" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="D28" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="E28" s="7" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A29" s="1">
         <v>28</v>
       </c>
-      <c r="D14" s="3" t="s">
+      <c r="B29" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C29" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="D29" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="E29" s="7" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A30" s="1">
         <v>29</v>
       </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A15" s="2">
-        <v>14</v>
-      </c>
-      <c r="B15" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C15" s="3" t="s">
+      <c r="B30" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C30" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="D30" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="E30" s="7" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A31" s="1">
         <v>30</v>
       </c>
-      <c r="D15" s="3" t="s">
+      <c r="B31" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C31" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="D31" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="E31" s="7" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A32" s="1">
         <v>31</v>
       </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A16" s="2">
-        <v>15</v>
-      </c>
-      <c r="B16" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C16" s="3" t="s">
+      <c r="B32" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C32" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="D32" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="E32" s="7" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A33" s="1">
         <v>32</v>
       </c>
-      <c r="D16" s="3" t="s">
+      <c r="B33" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C33" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="D33" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="E33" s="7" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A34" s="1">
         <v>33</v>
       </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A17" s="2">
-        <v>16</v>
-      </c>
-      <c r="B17" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="C17" s="3" t="s">
+      <c r="B34" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C34" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="D34" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="E34" s="7" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A35" s="1">
         <v>34</v>
       </c>
-      <c r="D17" s="3" t="s">
+      <c r="B35" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C35" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="D35" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="E35" s="7" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A36" s="1">
         <v>35</v>
       </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A18" s="2">
-        <v>17</v>
-      </c>
-      <c r="B18" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C18" s="3" t="s">
+      <c r="B36" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C36" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="D36" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="E36" s="7" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A37" s="1">
         <v>36</v>
       </c>
-      <c r="D18" s="3" t="s">
+      <c r="B37" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C37" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="D37" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="E37" s="7" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A38" s="1">
         <v>37</v>
       </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A19" s="2">
-        <v>18</v>
-      </c>
-      <c r="B19" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C19" s="3" t="s">
+      <c r="B38" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C38" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="D38" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="E38" s="7" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A39" s="1">
         <v>38</v>
       </c>
-      <c r="D19" s="3" t="s">
+      <c r="B39" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C39" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="D39" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="E39" s="7" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A40" s="1">
         <v>39</v>
       </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A20" s="2">
-        <v>19</v>
-      </c>
-      <c r="B20" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C20" s="3" t="s">
+      <c r="B40" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C40" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="D40" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="E40" s="7" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A41" s="1">
         <v>40</v>
       </c>
-      <c r="D20" s="3" t="s">
+      <c r="B41" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C41" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="D41" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="E41" s="7" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A42" s="1">
         <v>41</v>
       </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A21" s="2">
-        <v>20</v>
-      </c>
-      <c r="B21" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C21" s="3" t="s">
+      <c r="B42" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C42" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="D42" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="E42" s="7" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A43" s="1">
         <v>42</v>
       </c>
-      <c r="D21" s="3" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A22" s="2">
-        <v>21</v>
-      </c>
-      <c r="B22" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C22" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="D22" s="3" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A23" s="2">
-        <v>22</v>
-      </c>
-      <c r="B23" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C23" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="D23" s="3" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A24" s="2">
-        <v>23</v>
-      </c>
-      <c r="B24" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C24" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="D24" s="3" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A25" s="2">
-        <v>24</v>
-      </c>
-      <c r="B25" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C25" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="D25" s="3" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A26" s="2">
-        <v>25</v>
-      </c>
-      <c r="B26" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C26" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="D26" s="3" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A27" s="2">
-        <v>26</v>
-      </c>
-      <c r="B27" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="C27" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="D27" s="3" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A28" s="2">
-        <v>27</v>
-      </c>
-      <c r="B28" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="C28" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="D28" s="3" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A29" s="2">
-        <v>28</v>
-      </c>
-      <c r="B29" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C29" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="D29" s="3" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A30" s="2">
-        <v>29</v>
-      </c>
-      <c r="B30" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C30" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="D30" s="3" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A31" s="2">
-        <v>30</v>
-      </c>
-      <c r="B31" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C31" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="D31" s="3" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A32" s="2">
-        <v>31</v>
-      </c>
-      <c r="B32" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="C32" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="D32" s="3" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A33" s="2">
-        <v>32</v>
-      </c>
-      <c r="B33" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="C33" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="D33" s="3" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A34" s="2">
-        <v>33</v>
-      </c>
-      <c r="B34" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="C34" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="D34" s="3" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A35" s="2">
-        <v>34</v>
-      </c>
-      <c r="B35" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C35" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="D35" s="3" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A36" s="2">
-        <v>35</v>
-      </c>
-      <c r="B36" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="C36" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="D36" s="3" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A37" s="2">
-        <v>36</v>
-      </c>
-      <c r="B37" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="C37" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="D37" s="3" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A38" s="2">
-        <v>37</v>
-      </c>
-      <c r="B38" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="C38" s="3" t="s">
-        <v>76</v>
-      </c>
-      <c r="D38" s="3" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A39" s="2">
-        <v>38</v>
-      </c>
-      <c r="B39" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="C39" s="3" t="s">
-        <v>78</v>
-      </c>
-      <c r="D39" s="3" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A40" s="2">
-        <v>39</v>
-      </c>
-      <c r="B40" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="C40" s="3" t="s">
-        <v>80</v>
-      </c>
-      <c r="D40" s="3" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A41" s="2">
-        <v>40</v>
-      </c>
-      <c r="B41" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="C41" s="3" t="s">
-        <v>82</v>
-      </c>
-      <c r="D41" s="3" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A42" s="2">
-        <v>41</v>
-      </c>
-      <c r="B42" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="C42" s="3" t="s">
-        <v>84</v>
-      </c>
-      <c r="D42" s="3" t="s">
+      <c r="B43" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C43" s="2" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A43" s="2">
-        <v>42</v>
-      </c>
-      <c r="B43" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="C43" s="3" t="s">
+      <c r="D43" s="4" t="s">
         <v>86</v>
       </c>
-      <c r="D43" s="3" t="s">
-        <v>87</v>
+      <c r="E43" s="7" t="s">
+        <v>127</v>
       </c>
     </row>
   </sheetData>
@@ -1264,12 +1543,751 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:E43"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="6.85546875" customWidth="1"/>
+    <col min="3" max="3" width="10.28515625" customWidth="1"/>
+    <col min="4" max="5" width="50.7109375" style="5" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A1" s="1"/>
+      <c r="B1" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="E1" s="6" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" s="1">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="E2" s="7" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="1">
+        <v>2</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="E3" s="7" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="1">
+        <v>3</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="E4" s="7" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" s="1">
+        <v>4</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="E5" s="7" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" s="1">
+        <v>5</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="E6" s="7" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" s="1">
+        <v>6</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="E7" s="7" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" s="1">
+        <v>7</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="E8" s="7" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" s="1">
+        <v>8</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="E9" s="7" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A10" s="1">
+        <v>9</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="E10" s="7" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A11" s="1">
+        <v>10</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="D11" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="E11" s="7" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A12" s="1">
+        <v>11</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D12" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="E12" s="7" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A13" s="1">
+        <v>12</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="D13" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="E13" s="7" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A14" s="1">
+        <v>13</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="D14" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="E14" s="7" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A15" s="1">
+        <v>14</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="D15" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="E15" s="7" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A16" s="1">
+        <v>15</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="D16" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="E16" s="7" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A17" s="1">
+        <v>16</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D17" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="E17" s="7" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A18" s="1">
+        <v>17</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="D18" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="E18" s="7" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A19" s="1">
+        <v>18</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D19" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="E19" s="7" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A20" s="1">
+        <v>19</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D20" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E20" s="7" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A21" s="1">
+        <v>20</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D21" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="E21" s="7" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A22" s="1">
+        <v>21</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="D22" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="E22" s="7" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A23" s="1">
+        <v>22</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="D23" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="E23" s="7" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A24" s="1">
+        <v>23</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="D24" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="E24" s="7" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A25" s="1">
+        <v>24</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="D25" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="E25" s="7" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A26" s="1">
+        <v>25</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="D26" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="E26" s="7" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A27" s="1">
+        <v>26</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C27" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="D27" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="E27" s="7" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A28" s="1">
+        <v>27</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C28" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="D28" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="E28" s="7" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A29" s="1">
+        <v>28</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C29" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D29" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="E29" s="7" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A30" s="1">
+        <v>29</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C30" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="D30" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="E30" s="7" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A31" s="1">
+        <v>30</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C31" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="D31" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="E31" s="7" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A32" s="1">
+        <v>31</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C32" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="D32" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="E32" s="7" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A33" s="1">
+        <v>32</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C33" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="D33" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="E33" s="7" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A34" s="1">
+        <v>33</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C34" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D34" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="E34" s="7" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A35" s="1">
+        <v>34</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C35" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="D35" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="E35" s="7" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A36" s="1">
+        <v>35</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C36" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="D36" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="E36" s="7" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A37" s="1">
+        <v>36</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C37" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D37" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E37" s="7" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A38" s="1">
+        <v>37</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C38" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="D38" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="E38" s="7" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A39" s="1">
+        <v>38</v>
+      </c>
+      <c r="B39" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C39" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="D39" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="E39" s="7" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A40" s="1">
+        <v>39</v>
+      </c>
+      <c r="B40" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C40" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="D40" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="E40" s="7" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A41" s="1">
+        <v>40</v>
+      </c>
+      <c r="B41" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C41" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="D41" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="E41" s="7" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A42" s="1">
+        <v>41</v>
+      </c>
+      <c r="B42" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C42" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D42" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="E42" s="7" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A43" s="1">
+        <v>42</v>
+      </c>
+      <c r="B43" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C43" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D43" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="E43" s="7" t="s">
+        <v>90</v>
+      </c>
+    </row>
+  </sheetData>
+  <sortState ref="A2:E43">
+    <sortCondition ref="E1"/>
+  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -1284,4 +2302,16 @@
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>